--- a/modified.xlsx
+++ b/modified.xlsx
@@ -31477,7 +31477,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>FlabÃ©bÃ©</t>
+          <t>Flabébé</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
